--- a/biology/Médecine/Muscle_ilio-costal/Muscle_ilio-costal.xlsx
+++ b/biology/Médecine/Muscle_ilio-costal/Muscle_ilio-costal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle ilio-costal[1],[2] (latin musculus iliocostalis) aussi appelé muscle sacro-lombal, est un muscle large, épais, qui diminue de volume à son l’extrémité céphalique. Il est situé dans la portion latérale de la gouttière paravertébrale.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle ilio-costal, (latin musculus iliocostalis) aussi appelé muscle sacro-lombal, est un muscle large, épais, qui diminue de volume à son l’extrémité céphalique. Il est situé dans la portion latérale de la gouttière paravertébrale.
 </t>
         </is>
       </c>
@@ -513,13 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Insertions
-Partie lombaire : de la masse commune des spinaux sacrolombaires en distal, jusqu'aux neuf dernières côtes au niveau de la face externe de l’angle postérieur en proximal.
+          <t>Insertions</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Partie lombaire : de la masse commune des spinaux sacrolombaires en distal, jusqu'aux neuf dernières côtes au niveau de la face externe de l’angle postérieur en proximal.
 Partie thoracique : de la face externe de l’angle postérieur des six dernières côtes, jusqu'à la face externe de l’angle postérieur des six premières côtes en proximal.
-Partie cervicale : de la face externe de l’angle postérieur des côtes 4 à 7, jusqu'aux processus transverses des vertèbres 4 à 7.
-Rapport
-Le muscle ilio-costal sera recouvert par le dentelé postérieur, leur aponévrose intermédiaire, plus superficiellement par les rhomboïdes et encore plus superficiellement par le grand dorsal et le trapèze.
-</t>
+Partie cervicale : de la face externe de l’angle postérieur des côtes 4 à 7, jusqu'aux processus transverses des vertèbres 4 à 7.</t>
         </is>
       </c>
     </row>
@@ -544,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Innervation</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'innervation du muscle ilio-costal est assurée par les nerfs spinaux des étages correspondants
+          <t>Rapport</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle ilio-costal sera recouvert par le dentelé postérieur, leur aponévrose intermédiaire, plus superficiellement par les rhomboïdes et encore plus superficiellement par le grand dorsal et le trapèze.
 </t>
         </is>
       </c>
@@ -575,12 +595,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'innervation du muscle ilio-costal est assurée par les nerfs spinaux des étages correspondants
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Muscle_ilio-costal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_ilio-costal</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle ilio-costal a un rôle d'extenseur du rachis et de flexion latérale[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle ilio-costal a un rôle d'extenseur du rachis et de flexion latérale.
 </t>
         </is>
       </c>
